--- a/Optimisation data/combined/Clinical ABC/top/SHAP/LogisticRegression_optimisation.xlsx
+++ b/Optimisation data/combined/Clinical ABC/top/SHAP/LogisticRegression_optimisation.xlsx
@@ -157,7 +157,7 @@
     <t>{'C': 1.0, 'class_weight': None, 'dual': False, 'fit_intercept': False, 'max_iter': 10000, 'multi_class': 'auto', 'penalty': 'none', 'random_state': 10, 'tol': 0.0001, 'verbose': 0, 'warm_start': True}</t>
   </si>
   <si>
-    <t>[0.66507177 0.52631579 0.59808612 0.83732057 0.555     ]</t>
+    <t>[0.63492063 0.55357143 0.68415638 0.70884774 0.68979592]</t>
   </si>
 </sst>
 </file>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004449701309204102</v>
+        <v>0.005730915069580078</v>
       </c>
       <c r="C2">
-        <v>0.001659641456959101</v>
+        <v>0.003000456279259475</v>
       </c>
       <c r="D2">
-        <v>0.001056814193725586</v>
+        <v>0.001888942718505859</v>
       </c>
       <c r="E2">
-        <v>4.314114191109872E-05</v>
+        <v>0.0004769262564387624</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -657,37 +657,37 @@
         <v>31</v>
       </c>
       <c r="R2">
-        <v>0.4137931034482759</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="S2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T2">
-        <v>0.5333333333333333</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="U2">
-        <v>0.4285714285714285</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="V2">
-        <v>0.631578947368421</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="W2">
-        <v>0.5014553625442917</v>
+        <v>0.5638941222788774</v>
       </c>
       <c r="X2">
-        <v>0.0786730067182161</v>
+        <v>0.08320255346235392</v>
       </c>
       <c r="Y2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="s">
         <v>47</v>
       </c>
       <c r="AA2">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB2">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006981849670410156</v>
+        <v>0.004150629043579102</v>
       </c>
       <c r="C3">
-        <v>0.003189611470222943</v>
+        <v>0.001408240015526683</v>
       </c>
       <c r="D3">
-        <v>0.004169178009033203</v>
+        <v>0.001403999328613281</v>
       </c>
       <c r="E3">
-        <v>0.003272425445360722</v>
+        <v>0.0002202478469690135</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -743,37 +743,37 @@
         <v>32</v>
       </c>
       <c r="R3">
-        <v>0.6285714285714286</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="S3">
-        <v>0.6285714285714286</v>
+        <v>0.4745762711864406</v>
       </c>
       <c r="T3">
-        <v>0.6060606060606061</v>
+        <v>0.6567164179104479</v>
       </c>
       <c r="U3">
-        <v>0.6206896551724138</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V3">
-        <v>0.6666666666666667</v>
+        <v>0.6567164179104477</v>
       </c>
       <c r="W3">
-        <v>0.6301119570085086</v>
+        <v>0.5783903518674171</v>
       </c>
       <c r="X3">
-        <v>0.02004116018713882</v>
+        <v>0.06995560282062323</v>
       </c>
       <c r="Y3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="s">
         <v>47</v>
       </c>
       <c r="AA3">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB3">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -781,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.00271763801574707</v>
+        <v>0.003569650650024414</v>
       </c>
       <c r="C4">
-        <v>0.002017014802196694</v>
+        <v>0.001197459058299865</v>
       </c>
       <c r="D4">
-        <v>0.001355361938476563</v>
+        <v>0.001888656616210938</v>
       </c>
       <c r="E4">
-        <v>0.0008351414854146014</v>
+        <v>0.0006248975173018375</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -826,37 +826,37 @@
         <v>33</v>
       </c>
       <c r="R4">
-        <v>0.6666666666666667</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="S4">
-        <v>0.6666666666666667</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="T4">
-        <v>0.5945945945945946</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="U4">
-        <v>0.6829268292682926</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="V4">
-        <v>0.6</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="W4">
-        <v>0.6421709514392442</v>
+        <v>0.5485664739573095</v>
       </c>
       <c r="X4">
-        <v>0.03715648148714518</v>
+        <v>0.0722652358909711</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="s">
         <v>47</v>
       </c>
       <c r="AA4">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB4">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -864,16 +864,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004391527175903321</v>
+        <v>0.004147768020629883</v>
       </c>
       <c r="C5">
-        <v>0.002969742642814753</v>
+        <v>0.0002988488396109322</v>
       </c>
       <c r="D5">
-        <v>0.001274204254150391</v>
+        <v>0.002070426940917969</v>
       </c>
       <c r="E5">
-        <v>0.0006567949478104982</v>
+        <v>0.0005159780835631233</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -909,37 +909,37 @@
         <v>34</v>
       </c>
       <c r="R5">
-        <v>0.7027027027027027</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S5">
-        <v>0.6486486486486486</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="T5">
-        <v>0.6666666666666667</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="U5">
-        <v>0.7096774193548387</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="V5">
-        <v>0.7</v>
+        <v>0.6562499999999999</v>
       </c>
       <c r="W5">
-        <v>0.6855390874745714</v>
+        <v>0.5504115791615791</v>
       </c>
       <c r="X5">
-        <v>0.02367884916396554</v>
+        <v>0.0794696455952751</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="s">
         <v>47</v>
       </c>
       <c r="AA5">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB5">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -947,16 +947,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005146408081054687</v>
+        <v>0.007025861740112304</v>
       </c>
       <c r="C6">
-        <v>0.003654084025521644</v>
+        <v>0.003903439402866177</v>
       </c>
       <c r="D6">
-        <v>0.001079940795898438</v>
+        <v>0.001665067672729492</v>
       </c>
       <c r="E6">
-        <v>0.0004098841454736167</v>
+        <v>0.001033513090673748</v>
       </c>
       <c r="F6">
         <v>0.01</v>
@@ -995,37 +995,37 @@
         <v>35</v>
       </c>
       <c r="R6">
-        <v>0.5882352941176471</v>
+        <v>0.5762711864406779</v>
       </c>
       <c r="S6">
-        <v>0.6285714285714286</v>
+        <v>0.4</v>
       </c>
       <c r="T6">
-        <v>0.6</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="U6">
-        <v>0.4615384615384616</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="V6">
-        <v>0.631578947368421</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="W6">
-        <v>0.5819848263191917</v>
+        <v>0.5908779683957377</v>
       </c>
       <c r="X6">
-        <v>0.06245130898771563</v>
+        <v>0.1012384708695192</v>
       </c>
       <c r="Y6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="s">
         <v>47</v>
       </c>
       <c r="AA6">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB6">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1033,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002562093734741211</v>
+        <v>0.009363079071044922</v>
       </c>
       <c r="C7">
-        <v>0.0003808720914004626</v>
+        <v>0.006019449554514123</v>
       </c>
       <c r="D7">
-        <v>0.0008971214294433594</v>
+        <v>0.003815174102783203</v>
       </c>
       <c r="E7">
-        <v>3.260827120210067E-05</v>
+        <v>0.002137701935921446</v>
       </c>
       <c r="F7">
         <v>0.01</v>
@@ -1081,37 +1081,37 @@
         <v>36</v>
       </c>
       <c r="R7">
-        <v>0.6285714285714286</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="S7">
-        <v>0.6285714285714286</v>
+        <v>0.4745762711864406</v>
       </c>
       <c r="T7">
-        <v>0.6060606060606061</v>
+        <v>0.6567164179104479</v>
       </c>
       <c r="U7">
-        <v>0.6206896551724138</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V7">
-        <v>0.6666666666666667</v>
+        <v>0.6567164179104477</v>
       </c>
       <c r="W7">
-        <v>0.6301119570085086</v>
+        <v>0.5783903518674171</v>
       </c>
       <c r="X7">
-        <v>0.02004116018713882</v>
+        <v>0.06995560282062323</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z7" t="s">
         <v>47</v>
       </c>
       <c r="AA7">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB7">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1119,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.002931880950927735</v>
+        <v>0.006037092208862305</v>
       </c>
       <c r="C8">
-        <v>0.001463719036473338</v>
+        <v>0.002059634082720732</v>
       </c>
       <c r="D8">
-        <v>0.0009095668792724609</v>
+        <v>0.00671391487121582</v>
       </c>
       <c r="E8">
-        <v>4.911492171305866E-05</v>
+        <v>0.004049177161724995</v>
       </c>
       <c r="F8">
         <v>0.01</v>
@@ -1164,37 +1164,37 @@
         <v>37</v>
       </c>
       <c r="R8">
-        <v>0.6857142857142857</v>
+        <v>0.5517241379310344</v>
       </c>
       <c r="S8">
-        <v>0.6842105263157895</v>
+        <v>0.3703703703703704</v>
       </c>
       <c r="T8">
-        <v>0.631578947368421</v>
+        <v>0.6333333333333334</v>
       </c>
       <c r="U8">
-        <v>0.6666666666666667</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="V8">
-        <v>0.6153846153846154</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="W8">
-        <v>0.6567110082899558</v>
+        <v>0.5635354912853452</v>
       </c>
       <c r="X8">
-        <v>0.02841133563720606</v>
+        <v>0.1017798447679304</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
       </c>
       <c r="AA8">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB8">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1202,16 +1202,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.002327156066894531</v>
+        <v>0.01439299583435059</v>
       </c>
       <c r="C9">
-        <v>0.0009735550569520012</v>
+        <v>0.007901324228454326</v>
       </c>
       <c r="D9">
-        <v>0.0008257865905761719</v>
+        <v>0.003690242767333984</v>
       </c>
       <c r="E9">
-        <v>6.283577626738375E-05</v>
+        <v>0.003493173771322045</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -1247,37 +1247,37 @@
         <v>38</v>
       </c>
       <c r="R9">
-        <v>0.7027027027027027</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.6486486486486486</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="T9">
-        <v>0.6666666666666667</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="U9">
-        <v>0.7096774193548387</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="V9">
-        <v>0.7</v>
+        <v>0.6562499999999999</v>
       </c>
       <c r="W9">
-        <v>0.6855390874745714</v>
+        <v>0.5504115791615791</v>
       </c>
       <c r="X9">
-        <v>0.02367884916396554</v>
+        <v>0.0794696455952751</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
       </c>
       <c r="AA9">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB9">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1285,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.001858949661254883</v>
+        <v>0.01257500648498535</v>
       </c>
       <c r="C10">
-        <v>6.093523668172757E-05</v>
+        <v>0.005673234197555354</v>
       </c>
       <c r="D10">
-        <v>0.0007648468017578125</v>
+        <v>0.005941152572631836</v>
       </c>
       <c r="E10">
-        <v>3.440570925140993E-05</v>
+        <v>0.001886994350153504</v>
       </c>
       <c r="F10">
         <v>0.1</v>
@@ -1333,37 +1333,37 @@
         <v>39</v>
       </c>
       <c r="R10">
-        <v>0.6285714285714286</v>
+        <v>0.603174603174603</v>
       </c>
       <c r="S10">
-        <v>0.6470588235294117</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="T10">
-        <v>0.625</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="U10">
-        <v>0.6206896551724138</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="V10">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="W10">
-        <v>0.6305797709283351</v>
+        <v>0.5799898380180071</v>
       </c>
       <c r="X10">
-        <v>0.00900598912378016</v>
+        <v>0.08069651169061996</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
       </c>
       <c r="AA10">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB10">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1371,16 +1371,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.002004766464233399</v>
+        <v>0.01639413833618164</v>
       </c>
       <c r="C11">
-        <v>0.0002392300434109167</v>
+        <v>0.005223813367791615</v>
       </c>
       <c r="D11">
-        <v>0.0007079601287841797</v>
+        <v>0.004514837265014648</v>
       </c>
       <c r="E11">
-        <v>3.779836149978032E-05</v>
+        <v>0.003328428279075724</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -1419,37 +1419,37 @@
         <v>40</v>
       </c>
       <c r="R11">
-        <v>0.6285714285714286</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="S11">
-        <v>0.6285714285714286</v>
+        <v>0.4745762711864406</v>
       </c>
       <c r="T11">
-        <v>0.6060606060606061</v>
+        <v>0.6567164179104479</v>
       </c>
       <c r="U11">
-        <v>0.6206896551724138</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V11">
-        <v>0.6666666666666667</v>
+        <v>0.6567164179104477</v>
       </c>
       <c r="W11">
-        <v>0.6301119570085086</v>
+        <v>0.5783903518674171</v>
       </c>
       <c r="X11">
-        <v>0.02004116018713882</v>
+        <v>0.06995560282062323</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="s">
         <v>47</v>
       </c>
       <c r="AA11">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB11">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1457,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.001554727554321289</v>
+        <v>0.02494139671325684</v>
       </c>
       <c r="C12">
-        <v>0.0001641301620880837</v>
+        <v>0.0197527262375071</v>
       </c>
       <c r="D12">
-        <v>0.000771188735961914</v>
+        <v>0.007191038131713868</v>
       </c>
       <c r="E12">
-        <v>0.0001060327168127577</v>
+        <v>0.006097777330149007</v>
       </c>
       <c r="F12">
         <v>0.1</v>
@@ -1502,37 +1502,37 @@
         <v>41</v>
       </c>
       <c r="R12">
-        <v>0.7027027027027027</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="S12">
-        <v>0.6486486486486486</v>
+        <v>0.4</v>
       </c>
       <c r="T12">
-        <v>0.6842105263157895</v>
+        <v>0.6031746031746033</v>
       </c>
       <c r="U12">
-        <v>0.7499999999999999</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="V12">
-        <v>0.6829268292682926</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="W12">
-        <v>0.6936977413870867</v>
+        <v>0.5664609225899548</v>
       </c>
       <c r="X12">
-        <v>0.03312544100067901</v>
+        <v>0.08892172094156747</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="s">
         <v>47</v>
       </c>
       <c r="AA12">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB12">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1540,16 +1540,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.002866649627685547</v>
+        <v>0.009238243103027344</v>
       </c>
       <c r="C13">
-        <v>0.0008408898646569604</v>
+        <v>0.005730825747515498</v>
       </c>
       <c r="D13">
-        <v>0.0009131908416748046</v>
+        <v>0.0082305908203125</v>
       </c>
       <c r="E13">
-        <v>0.0002578905959805851</v>
+        <v>0.01073906746615409</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -1585,37 +1585,37 @@
         <v>42</v>
       </c>
       <c r="R13">
-        <v>0.7027027027027027</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S13">
-        <v>0.6486486486486486</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="T13">
-        <v>0.6666666666666667</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="U13">
-        <v>0.7096774193548387</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="V13">
-        <v>0.7</v>
+        <v>0.6562499999999999</v>
       </c>
       <c r="W13">
-        <v>0.6855390874745714</v>
+        <v>0.5504115791615791</v>
       </c>
       <c r="X13">
-        <v>0.02367884916396554</v>
+        <v>0.0794696455952751</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="s">
         <v>47</v>
       </c>
       <c r="AA13">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB13">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1623,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.002803993225097656</v>
+        <v>0.01393752098083496</v>
       </c>
       <c r="C14">
-        <v>0.0007789781667359534</v>
+        <v>0.01233294558399919</v>
       </c>
       <c r="D14">
-        <v>0.001123332977294922</v>
+        <v>0.002502298355102539</v>
       </c>
       <c r="E14">
-        <v>0.0004694688272318065</v>
+        <v>0.001558685552181106</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1671,37 +1671,37 @@
         <v>43</v>
       </c>
       <c r="R14">
-        <v>0.6285714285714286</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="S14">
-        <v>0.6285714285714286</v>
+        <v>0.4745762711864406</v>
       </c>
       <c r="T14">
-        <v>0.6060606060606061</v>
+        <v>0.6567164179104479</v>
       </c>
       <c r="U14">
-        <v>0.6206896551724138</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="V14">
-        <v>0.631578947368421</v>
+        <v>0.6567164179104477</v>
       </c>
       <c r="W14">
-        <v>0.6230944131488595</v>
+        <v>0.576370149847215</v>
       </c>
       <c r="X14">
-        <v>0.009251120598566864</v>
+        <v>0.07072745601311242</v>
       </c>
       <c r="Y14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="s">
         <v>47</v>
       </c>
       <c r="AA14">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB14">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1709,16 +1709,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.002244949340820312</v>
+        <v>0.0150115966796875</v>
       </c>
       <c r="C15">
-        <v>0.0007347479468652588</v>
+        <v>0.009538176237436949</v>
       </c>
       <c r="D15">
-        <v>0.0007576942443847656</v>
+        <v>0.008159112930297852</v>
       </c>
       <c r="E15">
-        <v>7.202135556823721E-05</v>
+        <v>0.00798967269282398</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1757,37 +1757,37 @@
         <v>44</v>
       </c>
       <c r="R15">
-        <v>0.6285714285714286</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="S15">
-        <v>0.6285714285714286</v>
+        <v>0.4745762711864406</v>
       </c>
       <c r="T15">
-        <v>0.6060606060606061</v>
+        <v>0.6567164179104479</v>
       </c>
       <c r="U15">
-        <v>0.6206896551724138</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V15">
-        <v>0.6666666666666667</v>
+        <v>0.6567164179104477</v>
       </c>
       <c r="W15">
-        <v>0.6301119570085086</v>
+        <v>0.5783903518674171</v>
       </c>
       <c r="X15">
-        <v>0.02004116018713882</v>
+        <v>0.06995560282062323</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z15" t="s">
         <v>47</v>
       </c>
       <c r="AA15">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB15">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1795,16 +1795,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.001748800277709961</v>
+        <v>0.003835773468017578</v>
       </c>
       <c r="C16">
-        <v>0.0001798722420507316</v>
+        <v>0.002085516593103265</v>
       </c>
       <c r="D16">
-        <v>0.0007472038269042969</v>
+        <v>0.001375389099121094</v>
       </c>
       <c r="E16">
-        <v>5.554508204563893E-05</v>
+        <v>0.0006762739428131437</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1840,37 +1840,37 @@
         <v>45</v>
       </c>
       <c r="R16">
-        <v>0.7027027027027027</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S16">
-        <v>0.6486486486486486</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="T16">
-        <v>0.6666666666666667</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="U16">
-        <v>0.7096774193548387</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="V16">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W16">
-        <v>0.6855390874745714</v>
+        <v>0.5464343064343063</v>
       </c>
       <c r="X16">
-        <v>0.02367884916396554</v>
+        <v>0.07440969584019633</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Z16" t="s">
         <v>47</v>
       </c>
       <c r="AA16">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB16">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -1878,16 +1878,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.001672267913818359</v>
+        <v>0.002525615692138672</v>
       </c>
       <c r="C17">
-        <v>0.0002322981601979866</v>
+        <v>0.001056815898788723</v>
       </c>
       <c r="D17">
-        <v>0.0006705760955810547</v>
+        <v>0.001015615463256836</v>
       </c>
       <c r="E17">
-        <v>4.46281370336918E-05</v>
+        <v>0.0003878686888305205</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1923,37 +1923,37 @@
         <v>46</v>
       </c>
       <c r="R17">
-        <v>0.7027027027027027</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S17">
-        <v>0.6486486486486486</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="T17">
-        <v>0.6666666666666667</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="U17">
-        <v>0.7096774193548387</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="V17">
-        <v>0.7</v>
+        <v>0.6562499999999999</v>
       </c>
       <c r="W17">
-        <v>0.6855390874745714</v>
+        <v>0.5504115791615791</v>
       </c>
       <c r="X17">
-        <v>0.02367884916396554</v>
+        <v>0.0794696455952751</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="s">
         <v>47</v>
       </c>
       <c r="AA17">
-        <v>0.6363588516746411</v>
+        <v>0.6542584194171497</v>
       </c>
       <c r="AB17">
-        <v>0.1108183969750727</v>
+        <v>0.0559439279691001</v>
       </c>
     </row>
   </sheetData>
